--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>78.14483633333333</v>
+        <v>115.5575153333333</v>
       </c>
       <c r="H2">
-        <v>234.434509</v>
+        <v>346.672546</v>
       </c>
       <c r="I2">
-        <v>0.8749092620517618</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="J2">
-        <v>0.8749092620517619</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.14949</v>
+        <v>40.91514966666667</v>
       </c>
       <c r="N2">
-        <v>63.44847</v>
+        <v>122.745449</v>
       </c>
       <c r="O2">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871414</v>
       </c>
       <c r="P2">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871415</v>
       </c>
       <c r="Q2">
-        <v>1652.72343458347</v>
+        <v>4728.053034971463</v>
       </c>
       <c r="R2">
-        <v>14874.51091125123</v>
+        <v>42552.47731474316</v>
       </c>
       <c r="S2">
-        <v>0.6693752069172741</v>
+        <v>0.7717303266554515</v>
       </c>
       <c r="T2">
-        <v>0.6693752069172743</v>
+        <v>0.7717303266554516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>78.14483633333333</v>
+        <v>115.5575153333333</v>
       </c>
       <c r="H3">
-        <v>234.434509</v>
+        <v>346.672546</v>
       </c>
       <c r="I3">
-        <v>0.8749092620517618</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="J3">
-        <v>0.8749092620517619</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.495648</v>
       </c>
       <c r="O3">
-        <v>0.005976663605872625</v>
+        <v>0.00344410114086962</v>
       </c>
       <c r="P3">
-        <v>0.005976663605872626</v>
+        <v>0.003444101140869621</v>
       </c>
       <c r="Q3">
-        <v>12.910777279648</v>
+        <v>19.091950453312</v>
       </c>
       <c r="R3">
-        <v>116.196995516832</v>
+        <v>171.827554079808</v>
       </c>
       <c r="S3">
-        <v>0.00522903834494564</v>
+        <v>0.003116258859797899</v>
       </c>
       <c r="T3">
-        <v>0.005229038344945642</v>
+        <v>0.0031162588597979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>115.5575153333333</v>
+      </c>
+      <c r="H4">
+        <v>346.672546</v>
+      </c>
+      <c r="I4">
+        <v>0.9048104954928987</v>
+      </c>
+      <c r="J4">
+        <v>0.9048104954928987</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>78.14483633333333</v>
-      </c>
-      <c r="H4">
-        <v>234.434509</v>
-      </c>
-      <c r="I4">
-        <v>0.8749092620517618</v>
-      </c>
-      <c r="J4">
-        <v>0.8749092620517619</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.4850956666666666</v>
+        <v>0.4441646666666667</v>
       </c>
       <c r="N4">
-        <v>1.455287</v>
+        <v>1.332494</v>
       </c>
       <c r="O4">
-        <v>0.01754826176843153</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="P4">
-        <v>0.01754826176843154</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="Q4">
-        <v>37.90772147767589</v>
+        <v>51.32656527885823</v>
       </c>
       <c r="R4">
-        <v>341.1694932990829</v>
+        <v>461.9390875097241</v>
       </c>
       <c r="S4">
-        <v>0.01535313675410958</v>
+        <v>0.008377712072130911</v>
       </c>
       <c r="T4">
-        <v>0.01535313675410958</v>
+        <v>0.008377712072130911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>78.14483633333333</v>
+        <v>115.5575153333333</v>
       </c>
       <c r="H5">
-        <v>234.434509</v>
+        <v>346.672546</v>
       </c>
       <c r="I5">
-        <v>0.8749092620517618</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="J5">
-        <v>0.8749092620517619</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.843715</v>
+        <v>6.446186333333333</v>
       </c>
       <c r="N5">
-        <v>17.531145</v>
+        <v>19.338559</v>
       </c>
       <c r="O5">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="P5">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="Q5">
-        <v>456.656152253645</v>
+        <v>744.9052760556905</v>
       </c>
       <c r="R5">
-        <v>4109.905370282804</v>
+        <v>6704.147484501214</v>
       </c>
       <c r="S5">
-        <v>0.1849518800354324</v>
+        <v>0.1215861979055184</v>
       </c>
       <c r="T5">
-        <v>0.1849518800354325</v>
+        <v>0.1215861979055184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H6">
         <v>16.558955</v>
       </c>
       <c r="I6">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J6">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.14949</v>
+        <v>40.91514966666667</v>
       </c>
       <c r="N6">
-        <v>63.44847</v>
+        <v>122.745449</v>
       </c>
       <c r="O6">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871414</v>
       </c>
       <c r="P6">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871415</v>
       </c>
       <c r="Q6">
-        <v>116.73781772765</v>
+        <v>225.8373740495328</v>
       </c>
       <c r="R6">
-        <v>1050.64035954885</v>
+        <v>2032.536366445795</v>
       </c>
       <c r="S6">
-        <v>0.04728038536962505</v>
+        <v>0.03686201257835663</v>
       </c>
       <c r="T6">
-        <v>0.04728038536962506</v>
+        <v>0.03686201257835663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H7">
         <v>16.558955</v>
       </c>
       <c r="I7">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J7">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.495648</v>
       </c>
       <c r="O7">
-        <v>0.005976663605872625</v>
+        <v>0.00344410114086962</v>
       </c>
       <c r="P7">
-        <v>0.005976663605872626</v>
+        <v>0.003444101140869621</v>
       </c>
       <c r="Q7">
-        <v>0.9119347697600001</v>
+        <v>0.9119347697599998</v>
       </c>
       <c r="R7">
-        <v>8.207412927840002</v>
+        <v>8.20741292784</v>
       </c>
       <c r="S7">
-        <v>0.0003693458399813883</v>
+        <v>0.0001488493704596519</v>
       </c>
       <c r="T7">
-        <v>0.0003693458399813884</v>
+        <v>0.0001488493704596519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H8">
         <v>16.558955</v>
       </c>
       <c r="I8">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J8">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4850956666666666</v>
+        <v>0.4441646666666667</v>
       </c>
       <c r="N8">
-        <v>1.455287</v>
+        <v>1.332494</v>
       </c>
       <c r="O8">
-        <v>0.01754826176843153</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="P8">
-        <v>0.01754826176843154</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="Q8">
-        <v>2.677559105009444</v>
+        <v>2.451634242641111</v>
       </c>
       <c r="R8">
-        <v>24.098031945085</v>
+        <v>22.06470818377</v>
       </c>
       <c r="S8">
-        <v>0.001084447429282464</v>
+        <v>0.0004001648206817406</v>
       </c>
       <c r="T8">
-        <v>0.001084447429282464</v>
+        <v>0.0004001648206817406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H9">
         <v>16.558955</v>
       </c>
       <c r="I9">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J9">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.843715</v>
+        <v>6.446186333333333</v>
       </c>
       <c r="N9">
-        <v>17.531145</v>
+        <v>19.338559</v>
       </c>
       <c r="O9">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="P9">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="Q9">
-        <v>32.255271239275</v>
+        <v>35.58070313842722</v>
       </c>
       <c r="R9">
-        <v>290.297441153475</v>
+        <v>320.226328245845</v>
       </c>
       <c r="S9">
-        <v>0.01306381842731236</v>
+        <v>0.00580761413895917</v>
       </c>
       <c r="T9">
-        <v>0.01306381842731236</v>
+        <v>0.005807614138959171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H10">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I10">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J10">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.14949</v>
+        <v>40.91514966666667</v>
       </c>
       <c r="N10">
-        <v>63.44847</v>
+        <v>122.745449</v>
       </c>
       <c r="O10">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871414</v>
       </c>
       <c r="P10">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871415</v>
       </c>
       <c r="Q10">
-        <v>113.81404173175</v>
+        <v>269.233850244501</v>
       </c>
       <c r="R10">
-        <v>1024.32637558575</v>
+        <v>2423.104652200509</v>
       </c>
       <c r="S10">
-        <v>0.04609621678988408</v>
+        <v>0.0439453461412257</v>
       </c>
       <c r="T10">
-        <v>0.04609621678988408</v>
+        <v>0.0439453461412257</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H11">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I11">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J11">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.495648</v>
       </c>
       <c r="O11">
-        <v>0.005976663605872625</v>
+        <v>0.00344410114086962</v>
       </c>
       <c r="P11">
-        <v>0.005976663605872626</v>
+        <v>0.003444101140869621</v>
       </c>
       <c r="Q11">
-        <v>0.8890947591999999</v>
+        <v>1.087170404224</v>
       </c>
       <c r="R11">
-        <v>8.001852832799999</v>
+        <v>9.784533638016002</v>
       </c>
       <c r="S11">
-        <v>0.0003600953286891309</v>
+        <v>0.0001774519796999254</v>
       </c>
       <c r="T11">
-        <v>0.000360095328689131</v>
+        <v>0.0001774519796999255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H12">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I12">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J12">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.4850956666666666</v>
+        <v>0.4441646666666667</v>
       </c>
       <c r="N12">
-        <v>1.455287</v>
+        <v>1.332494</v>
       </c>
       <c r="O12">
-        <v>0.01754826176843153</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="P12">
-        <v>0.01754826176843154</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="Q12">
-        <v>2.610497863063888</v>
+        <v>2.922735571627556</v>
       </c>
       <c r="R12">
-        <v>23.49448076757499</v>
+        <v>26.30462014464801</v>
       </c>
       <c r="S12">
-        <v>0.001057286724857195</v>
+        <v>0.0004770597243170001</v>
       </c>
       <c r="T12">
-        <v>0.001057286724857196</v>
+        <v>0.0004770597243170001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H13">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I13">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J13">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.843715</v>
+        <v>6.446186333333333</v>
       </c>
       <c r="N13">
-        <v>17.531145</v>
+        <v>19.338559</v>
       </c>
       <c r="O13">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="P13">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="Q13">
-        <v>31.44741659862499</v>
+        <v>42.41782273940311</v>
       </c>
       <c r="R13">
-        <v>283.0267493876249</v>
+        <v>381.760404654628</v>
       </c>
       <c r="S13">
-        <v>0.01273662643866577</v>
+        <v>0.006923594121420463</v>
       </c>
       <c r="T13">
-        <v>0.01273662643866578</v>
+        <v>0.006923594121420465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H14">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I14">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J14">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.14949</v>
+        <v>40.91514966666667</v>
       </c>
       <c r="N14">
-        <v>63.44847</v>
+        <v>122.745449</v>
       </c>
       <c r="O14">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871414</v>
       </c>
       <c r="P14">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871415</v>
       </c>
       <c r="Q14">
-        <v>5.747380957330001</v>
+        <v>2.337932567103</v>
       </c>
       <c r="R14">
-        <v>51.72642861597</v>
+        <v>21.041393103927</v>
       </c>
       <c r="S14">
-        <v>0.002327766544022385</v>
+        <v>0.0003816060121076258</v>
       </c>
       <c r="T14">
-        <v>0.002327766544022385</v>
+        <v>0.0003816060121076258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H15">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I15">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J15">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.495648</v>
       </c>
       <c r="O15">
-        <v>0.005976663605872625</v>
+        <v>0.00344410114086962</v>
       </c>
       <c r="P15">
-        <v>0.005976663605872626</v>
+        <v>0.003444101140869621</v>
       </c>
       <c r="Q15">
-        <v>0.04489750307200001</v>
+        <v>0.009440607456</v>
       </c>
       <c r="R15">
-        <v>0.404077527648</v>
+        <v>0.08496546710400001</v>
       </c>
       <c r="S15">
-        <v>1.818409225646587E-05</v>
+        <v>1.540930912144209E-06</v>
       </c>
       <c r="T15">
-        <v>1.818409225646587E-05</v>
+        <v>1.540930912144209E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H16">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I16">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J16">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.4850956666666666</v>
+        <v>0.4441646666666667</v>
       </c>
       <c r="N16">
-        <v>1.455287</v>
+        <v>1.332494</v>
       </c>
       <c r="O16">
-        <v>0.01754826176843153</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="P16">
-        <v>0.01754826176843154</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="Q16">
-        <v>0.1318249091152222</v>
+        <v>0.025380013218</v>
       </c>
       <c r="R16">
-        <v>1.186424182037</v>
+        <v>0.228420118962</v>
       </c>
       <c r="S16">
-        <v>5.339086018229761E-05</v>
+        <v>4.142619752014909E-06</v>
       </c>
       <c r="T16">
-        <v>5.339086018229761E-05</v>
+        <v>4.142619752014909E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H17">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I17">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J17">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.843715</v>
+        <v>6.446186333333333</v>
       </c>
       <c r="N17">
-        <v>17.531145</v>
+        <v>19.338559</v>
       </c>
       <c r="O17">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="P17">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="Q17">
-        <v>1.588031499155</v>
+        <v>0.368341533273</v>
       </c>
       <c r="R17">
-        <v>14.292283492395</v>
+        <v>3.315073799457</v>
       </c>
       <c r="S17">
-        <v>0.0006431741034796475</v>
+        <v>6.012206920924647E-05</v>
       </c>
       <c r="T17">
-        <v>0.0006431741034796476</v>
+        <v>6.012206920924649E-05</v>
       </c>
     </row>
   </sheetData>
